--- a/Docs/ISIS1225 - Tablas de Datos Lab 4-5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 4-5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 04 - Ordenamientos Iterativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juans\Desktop\Segundo semestre\Estructuras de Datos y Algoritmos\Laboratorios\Reto 01\Reto1-G07\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="269" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AEBD3D18-DBCC-494B-9E1B-9D93992A8FC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF184402-9CD8-4749-9751-43AE2D7B0994}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" firstSheet="1" activeTab="6" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4-5" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="Graf Selection Sort" sheetId="10" r:id="rId5"/>
     <sheet name="Graf Shell Sort" sheetId="9" r:id="rId6"/>
     <sheet name="Graf Quick Sort" sheetId="11" r:id="rId7"/>
-    <sheet name="Graf Merge Sort" sheetId="12" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="13" r:id="rId8"/>
+    <sheet name="Graf Merge Sort" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <r>
       <t>T</t>
@@ -87,12 +88,15 @@
   <si>
     <t>Merge Sort [ms]</t>
   </si>
+  <si>
+    <t>2531,25]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +121,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Dax-Regular"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Dax-Regular"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,255 +164,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -396,129 +225,6 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
         <name val="Dax-Regular"/>
         <scheme val="none"/>
       </font>
@@ -570,7 +276,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -604,7 +310,7 @@
               <a:rPr lang="es-419" sz="1800" b="1">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Comparación de rendimiento ARRAYLIST</a:t>
+              <a:t>Comparación de rendimiento ARRAYLIST (Máquina 2)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1">
               <a:effectLst/>
@@ -637,7 +343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -695,10 +401,66 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.5416181472034414E-2"/>
+                  <c:y val="-1.0740291262135923E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="92D050"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 1244,9x - 2E+06</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="92D050"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="92D050"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9443</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="92D050"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -724,7 +486,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -753,18 +515,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -772,37 +522,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>30750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>279062.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>2326093.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,6 +596,77 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1152739270267273"/>
+                  <c:y val="-1.4728900695665469E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="00B0F0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,6229x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:srgbClr val="00B0F0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="00B0F0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 2257,2x + 2E+06</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="00B0F0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="00B0F0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9993</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="00B0F0"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -892,7 +692,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -921,18 +721,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -940,37 +728,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>34562.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>246703.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>2063234.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,6 +801,61 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12027605264130715"/>
+                  <c:y val="-3.591723364676503E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 135627ln(x) - 983274</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,7564</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="FFC000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1059,7 +881,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1074,39 +896,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1132,18 +924,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1151,37 +931,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1828.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>8828.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>38625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1249,10 +1008,66 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.0302761450593319E-3"/>
+                  <c:y val="-3.1337754503988048E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="00B050"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 117,1x - 188065</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="00B050"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="00B050"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9428</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="00B050"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1278,7 +1093,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1307,18 +1122,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1326,37 +1129,22 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>6187.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>25234.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>133515.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>500812.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,10 +1212,65 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10987347972348516"/>
+                  <c:y val="-3.7329746706418976E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="0070C0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 9,2503x - 13337</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="0070C0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="0070C0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9649</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="0070C0"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1453,7 +1296,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1482,18 +1325,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1501,37 +1332,25 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>171.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>656.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>9875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>42125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>330</c:v>
+                  <c:v>172687.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1631,7 +1450,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1669,7 +1488,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1753,11 +1572,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1791,7 +1610,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1833,7 +1652,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1870,7 +1689,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1879,7 +1698,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1913,7 +1732,7 @@
               <a:rPr lang="es-419" sz="1800" b="1">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Comparación de rendimiento LINKED_LIST</a:t>
+              <a:t>Comparación de rendimiento LINKED_LIST (Máquina 2) </a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1">
               <a:effectLst/>
@@ -1921,6 +1740,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19209835069888312"/>
+          <c:y val="1.6140349873855857E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1946,7 +1773,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1957,8 +1784,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.9618151636373419E-2"/>
-          <c:y val="8.477122488864576E-2"/>
+          <c:x val="8.961819491161245E-2"/>
+          <c:y val="0.10494658830971616"/>
           <c:w val="0.87419688477936697"/>
           <c:h val="0.71422440045225488"/>
         </c:manualLayout>
@@ -2014,10 +1841,66 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9426882030340936E-2"/>
+                  <c:y val="-2.7859419458939251E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="92D050"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 1467,2x - 2E+06</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="92D050"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="92D050"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9415</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="92D050"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2043,7 +1926,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2072,18 +1955,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2091,37 +1962,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$B$15:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30468.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>277578.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>2300375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,10 +2031,66 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10250427968298199"/>
+                  <c:y val="2.2706898712791211E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="00B0F0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 1091,8x - 1E+06</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="00B0F0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="00B0F0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9526</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="00B0F0"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2210,7 +2116,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2239,18 +2145,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2258,37 +2152,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$C$15:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>35640.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>249796.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>2125640.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2348,10 +2221,65 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10873828678094775"/>
+                  <c:y val="-5.8266186459485649E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 48,868x - 80192</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="FFC000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9378</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="FFC000"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2377,7 +2305,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2406,18 +2334,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2425,37 +2341,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$D$15:$D$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>1734.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>8109.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>36843.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2523,10 +2418,74 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.8934592962355527E-2"/>
+                  <c:y val="1.8634478742158387E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 30,94x - 48183</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent6">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9496</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2552,7 +2511,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2581,18 +2540,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2600,37 +2547,22 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$E$15:$E$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>1281.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>6218.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>25093.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>146109.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>499593.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2698,10 +2630,65 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13874875932189459"/>
+                  <c:y val="9.6848453711589431E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="0070C0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = -0,0981x + 63387</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="0070C0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="0070C0"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,0306</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:srgbClr val="0070C0"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2727,7 +2714,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2756,18 +2743,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2775,37 +2750,25 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$F$15:$F$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>171.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>656.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>2562.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>9921.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>42031.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>170984.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2905,7 +2868,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2943,7 +2906,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -3027,11 +2990,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3065,7 +3028,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -3107,7 +3070,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3144,7 +3107,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3153,7 +3116,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3189,7 +3152,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Insertion Sort</a:t>
+              <a:t> Insertion Sort (Máquina 1)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -3220,7 +3183,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3234,15 +3197,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Datos Lab4-5'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertion Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Array List</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3278,10 +3233,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.84908714604507E-2"/>
+                  <c:y val="6.5047893292549355E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3307,7 +3269,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3336,18 +3298,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3355,37 +3305,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>30750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>279062.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>2326093.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3401,15 +3330,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Datos Lab4-5'!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Insertion Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Linked List</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3445,7 +3366,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3474,7 +3396,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3503,18 +3425,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3522,37 +3432,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$B$15:$B$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30468.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>277578.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>2300375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3652,7 +3541,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3690,7 +3579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3769,11 +3658,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3807,7 +3696,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3849,7 +3738,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3886,7 +3775,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3895,7 +3784,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3927,7 +3816,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comparación de rendimiento para Selection Sort</a:t>
+              <a:t>Comparación de rendimiento para Selection Sort (Máquina 1) </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3957,7 +3846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3971,15 +3860,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Datos Lab4-5'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Array List</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4015,7 +3896,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4044,7 +3926,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4073,18 +3955,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4092,37 +3962,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>34562.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>246703.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>2063234.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,15 +3987,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Datos Lab4-5'!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Selection Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Linked List</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4182,7 +4023,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4211,7 +4053,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4240,18 +4082,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4259,37 +4089,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$C$15:$C$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>35640.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>249796.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>2125640.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4389,7 +4198,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4427,7 +4236,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -4506,11 +4315,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4544,7 +4353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4586,7 +4395,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4623,7 +4432,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4632,7 +4441,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4664,7 +4473,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de rendimiento para Shell Sort</a:t>
+              <a:t>Comparación de rendimiento para Shell Sort (Máquina )</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4694,7 +4503,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4708,15 +4517,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Datos Lab4-5'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Shell Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Array List</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4752,7 +4553,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4781,7 +4582,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4810,18 +4611,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4829,37 +4618,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1828.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>8828.125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>38625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4875,15 +4643,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Datos Lab4-5'!$D$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Shell Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Linked List</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4919,7 +4679,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="log"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4948,7 +4708,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4977,18 +4737,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4996,37 +4744,16 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$D$15:$D$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>1734.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>8109.38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>36843.800000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5126,7 +4853,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5164,7 +4891,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5243,11 +4970,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5281,7 +5008,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -5323,7 +5050,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5360,7 +5087,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -5369,7 +5096,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5401,7 +5128,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de rendimiento para Quick Sort</a:t>
+              <a:t>Comparación de rendimiento para Quick Sort (Máquina 1)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5439,7 +5166,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5453,15 +5180,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Datos Lab4-5'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Array List</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5497,7 +5216,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5526,7 +5246,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5555,18 +5275,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5574,37 +5282,22 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>1375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>6187.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>25234.375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>133515.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>500812.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5620,15 +5313,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Datos Lab4-5'!$E$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Quick Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Linked List</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5664,7 +5349,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5693,7 +5379,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5722,18 +5408,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5741,37 +5415,22 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$E$15:$E$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>1281.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>6218.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>25093.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>146109.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300</c:v>
+                  <c:v>499593.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5871,7 +5530,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5909,7 +5568,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5988,11 +5647,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6026,7 +5685,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -6068,7 +5727,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6105,7 +5764,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -6114,7 +5773,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6146,8 +5805,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Comparación de rendimiento para Merge Sort</a:t>
+              <a:t>Comparación de rendimiento para Merge Sort (Máquina</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> 1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6184,7 +5848,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6198,15 +5862,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Datos Lab4-5'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Array List</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6272,7 +5928,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6301,18 +5957,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6320,37 +5964,25 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>171.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>656.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>9875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>42125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>330</c:v>
+                  <c:v>172687.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6366,15 +5998,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Datos Lab4-5'!$F$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Merge Sort [ms]</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Linked List</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -6440,7 +6064,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6469,18 +6093,6 @@
                 <c:pt idx="5">
                   <c:v>32000</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6488,37 +6100,25 @@
             <c:numRef>
               <c:f>'Datos Lab4-5'!$F$15:$F$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>171.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>656.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>2562.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>9921.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>42031.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>250</c:v>
+                  <c:v>170984.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6618,7 +6218,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6656,7 +6256,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -6735,11 +6335,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6773,7 +6373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -6815,7 +6415,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6852,7 +6452,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -10748,7 +10348,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF2A59F4-6CD8-490D-818C-7B3BB3F2B140}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="72" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10759,7 +10359,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="65" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10770,7 +10370,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10781,7 +10381,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10792,7 +10392,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10803,7 +10403,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0D6BB1E-4928-4857-A0CD-C818D0A5A6F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10814,7 +10414,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B3AE6AD4-6EB7-44ED-A987-5D4A68E7E10B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10825,7 +10425,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10858,7 +10458,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8663609" cy="6294783"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10891,7 +10491,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10924,7 +10524,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10957,7 +10557,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10990,7 +10590,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11023,7 +10623,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11053,37 +10653,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{072D0253-75B0-4C0B-8972-D03303899249}" name="Table1" displayName="Table1" ref="A1:F11" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:F11" xr:uid="{B245DDE7-54F2-4A7A-AC17-5CA17DD7B03F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Tamaño de la muestra (ARRAYLIST)" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="Quick Sort [ms]" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Merge Sort [ms]" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A7AF2A2F-BC4B-404E-9B8B-256DA178E68B}" name="Tamaño de la muestra (ARRAYLIST)"/>
+    <tableColumn id="2" xr3:uid="{23CECC62-35E0-466E-9502-4F5CC2E6F7A7}" name="Insertion Sort [ms]"/>
+    <tableColumn id="3" xr3:uid="{19B1D273-887B-4392-991E-015D36D99E5B}" name="Selection Sort [ms]"/>
+    <tableColumn id="4" xr3:uid="{56471E76-DCC6-4EED-8237-BCC256B57E91}" name="Shell Sort [ms]"/>
+    <tableColumn id="5" xr3:uid="{61DF25D7-A2A3-4D39-B0C6-29804C1B33DB}" name="Quick Sort [ms]"/>
+    <tableColumn id="6" xr3:uid="{6FC8F4B7-6274-4B14-98D8-0E00E479351A}" name="Merge Sort [ms]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:F24" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C35EFFA4-2B65-46C5-8257-6884800B9577}" name="Table13" displayName="Table13" ref="A14:F24" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A14:F24" xr:uid="{5C24B5A8-1B8E-4092-B34A-66FF5413D106}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{EE99E4CD-A6F0-492B-B754-38221659D42F}" name="Quick Sort [ms]" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{21628D13-D0BA-41D1-8E51-AB02437FBDE5}" name="Merge Sort [ms]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{16584851-71BC-4FF5-B248-C3F46BA653AF}" name="Tamaño de la muestra (LINKED_LIST)"/>
+    <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Insertion Sort [ms]"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Selection Sort [ms]"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Shell Sort [ms]"/>
+    <tableColumn id="5" xr3:uid="{EE99E4CD-A6F0-492B-B754-38221659D42F}" name="Quick Sort [ms]"/>
+    <tableColumn id="6" xr3:uid="{21628D13-D0BA-41D1-8E51-AB02437FBDE5}" name="Merge Sort [ms]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -11379,494 +10979,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.1171875" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="1">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
         <v>1000</v>
       </c>
-      <c r="B2" s="4">
-        <v>15.7</v>
+      <c r="B2" s="3">
+        <v>30750</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
+      <c r="C2" s="3">
+        <v>34562.5</v>
       </c>
-      <c r="D2" s="4">
-        <v>4</v>
+      <c r="D2" s="3">
+        <v>1828.125</v>
       </c>
-      <c r="E2" s="5">
-        <v>20</v>
+      <c r="E2" s="3">
+        <v>1375</v>
       </c>
-      <c r="F2" s="5">
-        <v>60</v>
+      <c r="F2" s="3">
+        <v>171.875</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="1">
+    <row r="3" spans="1:10">
+      <c r="A3" s="6">
         <v>2000</v>
       </c>
       <c r="B3" s="4">
-        <v>30</v>
+        <v>279062.5</v>
       </c>
       <c r="C3" s="4">
+        <v>246703.13</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8828.125</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6187.5</v>
+      </c>
+      <c r="F3" s="6">
+        <v>656.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2326093.75</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2063234.38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>38625</v>
+      </c>
+      <c r="E4" s="3">
+        <v>25234.375</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6">
+        <v>8000</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6">
+        <v>133515.625</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>16000</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>500812.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>42125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6">
+        <v>32000</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6">
+        <v>172687.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>19</v>
-      </c>
-      <c r="E3" s="5">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="1">
-        <v>4000</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4">
-        <f>C3+C2</f>
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
-      </c>
-      <c r="E4" s="5">
-        <v>60</v>
-      </c>
-      <c r="F4" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B5" s="4">
-        <v>60</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="E5" s="5">
-        <v>80</v>
-      </c>
-      <c r="F5" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="1">
-        <v>16000</v>
-      </c>
-      <c r="B6" s="4">
-        <v>75</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="E6" s="5">
-        <v>100</v>
-      </c>
-      <c r="F6" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="1">
-        <v>32000</v>
-      </c>
-      <c r="B7" s="4">
-        <v>90</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="E7" s="5">
-        <v>120</v>
-      </c>
-      <c r="F7" s="5">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="1">
-        <v>64000</v>
-      </c>
-      <c r="B8" s="4">
-        <v>105</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E8" s="5">
-        <v>140</v>
-      </c>
-      <c r="F8" s="5">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="1">
-        <v>128000</v>
-      </c>
-      <c r="B9" s="4">
-        <v>120</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="E9" s="5">
-        <v>160</v>
-      </c>
-      <c r="F9" s="5">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="1">
-        <v>256000</v>
-      </c>
-      <c r="B10" s="4">
-        <v>135</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="E10" s="5">
-        <v>180</v>
-      </c>
-      <c r="F10" s="5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="1">
-        <v>512000</v>
-      </c>
-      <c r="B11" s="4">
-        <v>150</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="E11" s="5">
-        <v>200</v>
-      </c>
-      <c r="F11" s="5">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="1">
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
         <v>1000</v>
       </c>
-      <c r="B15" s="4">
-        <v>50</v>
+      <c r="B15" s="3">
+        <v>30468.75</v>
       </c>
-      <c r="C15" s="4">
-        <v>2</v>
+      <c r="C15" s="3">
+        <v>35640.625</v>
       </c>
-      <c r="D15" s="4">
-        <v>35</v>
+      <c r="D15" s="3">
+        <v>1734.375</v>
       </c>
-      <c r="E15" s="5">
-        <v>30</v>
+      <c r="E15" s="3">
+        <v>1281.25</v>
       </c>
-      <c r="F15" s="5">
-        <v>70</v>
+      <c r="F15" s="3">
+        <v>171.875</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="1">
+    <row r="16" spans="1:10">
+      <c r="A16" s="6">
         <v>2000</v>
       </c>
       <c r="B16" s="4">
-        <v>60</v>
+        <v>277578.13</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>249796.88</v>
       </c>
       <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
+        <v>8109.38</v>
       </c>
-      <c r="E16" s="5">
-        <v>60</v>
+      <c r="E16" s="6">
+        <v>6218.75</v>
       </c>
-      <c r="F16" s="5">
-        <v>90</v>
+      <c r="F16" s="6">
+        <v>656.25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="1">
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
         <v>4000</v>
       </c>
-      <c r="B17" s="4">
-        <v>70</v>
+      <c r="B17" s="3">
+        <v>2300375</v>
       </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
+      <c r="C17" s="3">
+        <v>2125640.63</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
+      <c r="D17" s="3">
+        <v>36843.800000000003</v>
       </c>
-      <c r="E17" s="5">
-        <v>90</v>
+      <c r="E17" s="3">
+        <v>25093.75</v>
       </c>
-      <c r="F17" s="5">
-        <v>110</v>
+      <c r="F17" s="3">
+        <v>2562.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="1">
+    <row r="18" spans="1:10">
+      <c r="A18" s="6">
         <v>8000</v>
       </c>
-      <c r="B18" s="4">
-        <v>80</v>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6">
+        <v>146109.375</v>
       </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-      <c r="E18" s="5">
-        <v>120</v>
-      </c>
-      <c r="F18" s="5">
-        <v>130</v>
+      <c r="F18" s="6">
+        <v>9921.875</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="1">
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
         <v>16000</v>
       </c>
-      <c r="B19" s="4">
-        <v>90</v>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>499593.75</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="E19" s="5">
-        <v>150</v>
-      </c>
-      <c r="F19" s="5">
-        <v>150</v>
+      <c r="F19" s="3">
+        <v>42031.25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" s="1">
+    <row r="20" spans="1:10">
+      <c r="A20" s="6">
         <v>32000</v>
       </c>
-      <c r="B20" s="4">
-        <v>100</v>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5">
+        <v>170984.375</v>
       </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="E20" s="5">
-        <v>180</v>
-      </c>
-      <c r="F20" s="5">
-        <v>170</v>
-      </c>
+      <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="1">
-        <v>64000</v>
-      </c>
-      <c r="B21" s="4">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="E21" s="5">
-        <v>210</v>
-      </c>
-      <c r="F21" s="5">
-        <v>190</v>
-      </c>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="1">
-        <v>128000</v>
-      </c>
-      <c r="B22" s="4">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="E22" s="5">
-        <v>240</v>
-      </c>
-      <c r="F22" s="5">
-        <v>210</v>
-      </c>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A23" s="1">
-        <v>256000</v>
-      </c>
-      <c r="B23" s="4">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="E23" s="5">
-        <v>270</v>
-      </c>
-      <c r="F23" s="5">
-        <v>230</v>
-      </c>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="1">
-        <v>512000</v>
-      </c>
-      <c r="B24" s="4">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
-      <c r="E24" s="5">
-        <v>300</v>
-      </c>
-      <c r="F24" s="5">
-        <v>250</v>
-      </c>
+    <row r="24" spans="1:10" ht="15" thickBot="1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11874,6 +11307,18 @@
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F87D747-5395-463C-B06B-BE5E1EE5AECA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12089,6 +11534,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -12097,25 +11548,26 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE155A0-3C6B-4FBA-920A-A0416B6AA614}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EE155A0-3C6B-4FBA-920A-A0416B6AA614}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12130,4 +11582,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>